--- a/Labs/DAT215_1/Setup/Normalize to 2NF.xlsx
+++ b/Labs/DAT215_1/Setup/Normalize to 2NF.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="818"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="818" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>OrderID (Key)</t>
-  </si>
-  <si>
-    <t>Scroll across to view the full data set if necessary.</t>
   </si>
   <si>
     <t>Product (Key)</t>
@@ -71,7 +68,112 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Orders </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Table</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OrderDate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer </t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Wendy Kahn</t>
+  </si>
+  <si>
+    <t>1399 Firestone Drive</t>
+  </si>
+  <si>
+    <t>Linda Meisner</t>
+  </si>
+  <si>
+    <t>1318 Lasalle Street</t>
+  </si>
+  <si>
+    <t>Mike Seamans</t>
+  </si>
+  <si>
+    <t>9539 Glenside Drive</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OrderDetails</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table</t>
+    </r>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OrderDetails </t>
     </r>
     <r>
       <rPr>
@@ -135,13 +237,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,18 +579,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -497,92 +590,245 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>12.99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1.5</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42371</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25895</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5.99</v>
+      <c r="B5" s="2">
+        <v>42371</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4">
+        <v>30148</v>
+      </c>
+      <c r="F5">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>34423</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>5.99</v>
-      </c>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B11"/>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>3545435413</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>36465465436</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>34643434</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>34134213242</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>35432434</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.99</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -634,10 +880,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,143 +900,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1"/>
       <c r="I1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4" s="2">
+        <v>42371</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25895</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
         <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42371</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4">
+        <v>30148</v>
+      </c>
+      <c r="F5">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>34423</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>12.99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>3545435413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>36465465436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>5.99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>34643434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
+      <c r="B25">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21"/>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>34134213242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>35432434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
